--- a/Soen287_A3_Tasks_Allocation.xlsx
+++ b/Soen287_A3_Tasks_Allocation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Z-Jessey\School\Concordia University\Terms\Winter 2022\SOEN 287\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Z-Jessey\School\Concordia University\Terms\greentopia-main(PHP)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F53A1-114A-42DD-9B2D-C1BCAE32586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E9C0AE-3D95-4F96-BC39-D773486DCA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="96">
   <si>
     <t>Max</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Fadoua Doghmane</t>
-  </si>
-  <si>
-    <t>Jessey Thach</t>
   </si>
   <si>
     <t>Shamma Markis</t>
@@ -798,20 +795,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,23 +824,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1356,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1376,25 +1373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
@@ -1410,8 +1407,8 @@
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1505,12 +1502,12 @@
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" thickBot="1">
       <c r="E9" s="56"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="61"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="30"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
@@ -1524,85 +1521,85 @@
       <c r="A10" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="61"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72">
+      <c r="C11" s="65"/>
+      <c r="D11" s="66">
         <v>40198495</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="69">
-        <v>40210440</v>
-      </c>
-      <c r="E12" s="70"/>
+      <c r="B12" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69">
+      <c r="B14" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61">
         <v>40211033</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:19" ht="33.75" customHeight="1" thickBot="1">
       <c r="A15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="69">
+      <c r="B15" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61">
         <v>40208954</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="62"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -1615,14 +1612,14 @@
       <c r="A16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69">
+      <c r="B16" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="61">
         <v>40209686</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="M16" s="29"/>
@@ -1637,14 +1634,14 @@
       <c r="A17" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="70"/>
+      <c r="B17" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="62"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="M17" s="29"/>
@@ -1656,16 +1653,16 @@
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="28.9" customHeight="1">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:19" ht="45" customHeight="1" thickBot="1">
       <c r="A20" s="47" t="s">
@@ -1830,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="L24" s="36"/>
     </row>
@@ -1882,7 +1879,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="L26" s="36"/>
     </row>
@@ -2798,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L56" s="36"/>
     </row>
@@ -2834,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L57" s="36"/>
     </row>
@@ -2870,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L58" s="36"/>
     </row>
@@ -3170,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L68" s="36"/>
     </row>
@@ -3333,12 +3330,17 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="29">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B16:C16"/>
@@ -3351,17 +3353,12 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
